--- a/твимс/9задача.xlsx
+++ b/твимс/9задача.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Git Vuzik\твимс\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7A000D-AFBD-42D5-8158-93A7B47254FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEFB251-54FD-407C-A2EC-C2DE6B8C4787}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{8A0EDB1E-8BB4-4B63-B717-0B7E3F77CF2E}"/>
   </bookViews>
@@ -78,6 +78,4104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8630847198550134E-2"/>
+          <c:y val="0.19486111111111112"/>
+          <c:w val="0.89084765119716436"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$E$1:$E$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.4800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$1:$F$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1965-40AE-8A41-2E8A7488266B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$E$1:$E$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.23</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.18</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.4800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$G$1:$G$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.9554466451491845E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9554466451491845E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9554466451491845E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.823546641575128E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7606180094051727E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7606180094051727E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7606180094051727E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6883653613364245E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5162581964040482E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13929202357494219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.164729788588728</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17304086605663771</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17304086605663771</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22119921692859512</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.22119921692859512</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22894841419643375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.23662050566314685</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.24421625854427453</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25173643242143473</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26655304377571076</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27385096292630906</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.27385096292630906</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27385096292630906</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.28107626656807383</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.30232367392896897</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.31613859078764417</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.3363497498636806</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.3363497498636806</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.36871635449307405</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.36871635449307405</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.38121660819385916</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.39346934028736658</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.43447456130046291</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.43447456130046291</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.45118836390597361</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.46205556240532553</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46205556240532553</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.47270757595695145</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.49338300763441045</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.50341469620859047</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.51324774404002826</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.51809100990979751</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.52288608447896556</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.52763344725898531</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.53698693168877187</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55067103588277844</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.55514193377705889</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.5595683454940007</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.57258506805127329</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.581048450752361</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.58934424724765444</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.59343034025940089</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.59747577596636403</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.59747577596636403</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.61325897654549877</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.61325897654549877</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.63940505982692164</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.64299303943085262</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.65006225088884473</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.65699148258129336</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.65699148258129336</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.66378350629326666</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.66378350629326666</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.69880578808779781</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.70180272057011261</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.70770742231914063</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.74075973935410855</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.74333922304644418</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.74842144694024348</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.75828598310296358</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.75828598310296358</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.77462734446056125</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.78986392879923528</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.79607438826578658</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.80407042587309063</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.80986101989847947</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.80986101989847947</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.82271559003012218</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.8313618527314045</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.84432736963200272</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.85043138077736491</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.86193076268910718</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.8646647167633873</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.87506978780141753</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.87996837148854323</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.88467487896193753</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.8858223830891635</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.91709003342482731</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.93074777469065406</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.93211906062823857</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.93733799525784689</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.9476602940515676</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.94920716613510148</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.95584283158030714</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.95714787313295979</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95882812906093229</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.98470149243327443</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.9886665868453326</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99193321286090042</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99529909389241678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7066-4F2A-8F97-014D8411B6C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1926701903"/>
+        <c:axId val="1928505439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1926701903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1928505439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1928505439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1926701903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Равноинтервальная</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> гистограмма</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$AA$1:$AA$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.629</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$AB$1:$AB$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8450-4AE8-A94B-22D631B18280}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="1179619424"/>
+        <c:axId val="1212875568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1179619424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1212875568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1212875568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1179619424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Равновероятностная гистограмма </a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$AE$1:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$AF$1:$AF$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.83299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D72-457F-AC22-251A317D5DB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="80"/>
+        <c:overlap val="25"/>
+        <c:axId val="878861472"/>
+        <c:axId val="871960672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="878861472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="871960672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="871960672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="878861472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="215">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="20" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="70000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="70000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" i="0" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>103533</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>579783</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>31060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D9438B-4B3D-4A21-935F-1EB0DDD7E176}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>131693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>281609</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17393</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51776717-5CD9-4FA5-B2ED-285472FAD8B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>291703</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>140494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>5953</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>26194</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8A7075-886C-4119-8CED-56CD4EA17ABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,512 +4475,4588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C6422B-CD7E-4165-89EF-C6E3FFB642F0}">
-  <dimension ref="A1:A100"/>
+  <dimension ref="A1:AF104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="92" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U131" sqref="U131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>0.03</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <f>1-EXP(-E1)</f>
+        <v>2.9554466451491845E-2</v>
+      </c>
+      <c r="H1">
+        <f>A1^2</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <f>I1/1+J100-1+EXP(-A1/$A$104)</f>
+        <v>0.98584925386498079</v>
+      </c>
+      <c r="K1">
+        <f>MAX(J1:J100)</f>
+        <v>0.98584925386498079</v>
+      </c>
+      <c r="L1">
+        <f>1-((I1-1)/100)-EXP(-A1/$A$104)</f>
+        <v>2.5000764694129707E-2</v>
+      </c>
+      <c r="M1">
+        <f>MAX(L1:L100)</f>
+        <v>6.1868000828357861E-2</v>
+      </c>
+      <c r="R1">
+        <v>0.03</v>
+      </c>
+      <c r="S1">
+        <v>0.6</v>
+      </c>
+      <c r="U1">
+        <v>0.03</v>
+      </c>
+      <c r="V1">
+        <v>0.6</v>
+      </c>
+      <c r="X1">
+        <v>0.03</v>
+      </c>
+      <c r="Y1">
+        <v>0.6</v>
+      </c>
+      <c r="AA1">
+        <v>0.03</v>
+      </c>
+      <c r="AB1">
+        <v>0.6</v>
+      </c>
+      <c r="AC1">
+        <v>0.03</v>
+      </c>
+      <c r="AE1">
+        <v>0.03</v>
+      </c>
+      <c r="AF1">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0.03</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G65" si="0">1-EXP(-E2)</f>
+        <v>2.9554466451491845E-2</v>
+      </c>
+      <c r="H2">
+        <f>A2^2</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J65" si="1">I2/100-1+EXP(-A2/$A$104)</f>
+        <v>-5.000764694129689E-3</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L65" si="2">1-((I2-1)/100)-EXP(-A2/$A$104)</f>
+        <v>1.5000764694129698E-2</v>
+      </c>
+      <c r="R2">
+        <v>0.03</v>
+      </c>
+      <c r="S2">
+        <v>0.6</v>
+      </c>
+      <c r="U2">
+        <v>0.5</v>
+      </c>
+      <c r="V2">
+        <v>0.6</v>
+      </c>
+      <c r="X2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Y2">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AA2">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="AB2">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC2">
+        <v>0.03</v>
+      </c>
+      <c r="AE2">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="AF2">
+        <v>0.76900000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.03</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.03</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>2.9554466451491845E-2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="3">A3^2</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>4.9992353058703198E-3</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="2"/>
+        <v>5.000764694129689E-3</v>
+      </c>
+      <c r="R3">
+        <v>0.03</v>
+      </c>
+      <c r="S3">
+        <v>0.6</v>
+      </c>
+      <c r="U3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V3">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="X3">
+        <v>1.2</v>
+      </c>
+      <c r="Y3">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AA3">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="AB3">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AC3">
+        <v>0.03</v>
+      </c>
+      <c r="AE3">
+        <v>0.315</v>
+      </c>
+      <c r="AF3">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.03</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.06</v>
+      </c>
+      <c r="F4">
+        <v>0.03</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>5.823546641575128E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>-9.3764911529680139E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>1.9376491152968023E-2</v>
+      </c>
+      <c r="R4">
+        <v>0.06</v>
+      </c>
+      <c r="S4">
+        <v>0.6</v>
+      </c>
+      <c r="U4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="V4">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="X4">
+        <v>1.63</v>
+      </c>
+      <c r="Y4">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AA4">
+        <v>1.629</v>
+      </c>
+      <c r="AB4">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AC4">
+        <v>0.06</v>
+      </c>
+      <c r="AE4">
+        <v>0.47</v>
+      </c>
+      <c r="AF4">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.03</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.04</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>6.7606180094051727E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000007E-3</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>-7.3655481341935447E-3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>1.7365548134193554E-2</v>
+      </c>
+      <c r="R5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S5">
+        <v>0.6</v>
+      </c>
+      <c r="U5">
+        <v>1.2</v>
+      </c>
+      <c r="V5">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="X5">
+        <v>2.17</v>
+      </c>
+      <c r="Y5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AA5">
+        <v>2.1619999999999999</v>
+      </c>
+      <c r="AB5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AE5">
+        <v>0.71</v>
+      </c>
+      <c r="AF5">
+        <v>0.66600000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.06</v>
+      </c>
+      <c r="C6">
+        <v>0.03</v>
+      </c>
+      <c r="E6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.04</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>6.7606180094051727E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000007E-3</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>2.6344518658064642E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>7.3655481341935447E-3</v>
+      </c>
+      <c r="R6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S6">
+        <v>0.6</v>
+      </c>
+      <c r="U6">
+        <v>1.59</v>
+      </c>
+      <c r="V6">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="X6">
+        <v>2.77</v>
+      </c>
+      <c r="Y6">
+        <v>0.113</v>
+      </c>
+      <c r="AA6">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="AB6">
+        <v>0.113</v>
+      </c>
+      <c r="AC6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AE6">
+        <v>0.88</v>
+      </c>
+      <c r="AF6">
+        <v>0.55500000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C7">
+        <v>0.04</v>
+      </c>
+      <c r="E7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.04</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>6.7606180094051727E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000007E-3</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>1.2634451865806473E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>-2.6344518658064642E-3</v>
+      </c>
+      <c r="R7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S7">
+        <v>0.6</v>
+      </c>
+      <c r="U7">
+        <v>1.63</v>
+      </c>
+      <c r="V7">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="X7">
+        <v>4.18</v>
+      </c>
+      <c r="Y7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AA7">
+        <v>3.2280000000000002</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AE7">
+        <v>1.07</v>
+      </c>
+      <c r="AF7">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.04</v>
+      </c>
+      <c r="E8">
+        <v>0.08</v>
+      </c>
+      <c r="F8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>7.6883653613364245E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>1.4712535062427645E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>-4.7125350624277473E-3</v>
+      </c>
+      <c r="R8">
+        <v>0.08</v>
+      </c>
+      <c r="S8">
+        <v>0.6</v>
+      </c>
+      <c r="U8">
+        <v>2.16</v>
+      </c>
+      <c r="V8">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="X8">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="Y8">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AA8">
+        <v>3.7610000000000001</v>
+      </c>
+      <c r="AB8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AC8">
+        <v>0.08</v>
+      </c>
+      <c r="AE8">
+        <v>1.42</v>
+      </c>
+      <c r="AF8">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.04</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>0.08</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>9.5162581964040482E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>9.0678697421294752E-3</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>9.3213025787053372E-4</v>
+      </c>
+      <c r="R9">
+        <v>0.1</v>
+      </c>
+      <c r="S9">
+        <v>0.6</v>
+      </c>
+      <c r="U9">
+        <v>2.17</v>
+      </c>
+      <c r="V9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X9">
+        <v>5.36</v>
+      </c>
+      <c r="Y9">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AA9">
+        <v>4.2939999999999996</v>
+      </c>
+      <c r="AB9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AC9">
+        <v>0.1</v>
+      </c>
+      <c r="AE9">
+        <v>1.88</v>
+      </c>
+      <c r="AF9">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.08</v>
+      </c>
+      <c r="C10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.15</v>
+      </c>
+      <c r="F10">
+        <v>0.09</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.13929202357494219</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>-1.8907761859330185E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>2.8907761859330194E-2</v>
+      </c>
+      <c r="R10">
+        <v>0.15</v>
+      </c>
+      <c r="S10">
+        <v>0.6</v>
+      </c>
+      <c r="U10">
+        <v>2.69</v>
+      </c>
+      <c r="V10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AA10">
+        <v>4.827</v>
+      </c>
+      <c r="AB10">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AC10">
+        <v>0.15</v>
+      </c>
+      <c r="AE10">
+        <v>2.73</v>
+      </c>
+      <c r="AF10">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>0.08</v>
+      </c>
+      <c r="E11">
+        <v>0.18</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.164729788588728</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>-3.0935741578909104E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>4.0935741578909113E-2</v>
+      </c>
+      <c r="R11">
+        <v>0.18</v>
+      </c>
+      <c r="S11">
+        <v>0.6</v>
+      </c>
+      <c r="U11">
+        <v>2.77</v>
+      </c>
+      <c r="V11">
+        <v>0.113</v>
+      </c>
+      <c r="AC11">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.15</v>
+      </c>
+      <c r="C12">
+        <v>0.09</v>
+      </c>
+      <c r="E12">
+        <v>0.19</v>
+      </c>
+      <c r="F12">
+        <v>0.11</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.17304086605663771</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>3.61E-2</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>-2.8155332980960845E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>3.8155332980960854E-2</v>
+      </c>
+      <c r="R12">
+        <v>0.19</v>
+      </c>
+      <c r="S12">
+        <v>0.6</v>
+      </c>
+      <c r="U12">
+        <v>3.19</v>
+      </c>
+      <c r="V12">
+        <v>0.113</v>
+      </c>
+      <c r="AC12">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.18</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <v>0.19</v>
+      </c>
+      <c r="F13">
+        <v>0.11</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.17304086605663771</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>3.61E-2</v>
+      </c>
+      <c r="I13">
+        <v>13</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>-1.8155332980960837E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>2.8155332980960845E-2</v>
+      </c>
+      <c r="R13">
+        <v>0.19</v>
+      </c>
+      <c r="S13">
+        <v>0.6</v>
+      </c>
+      <c r="U13">
+        <v>4.18</v>
+      </c>
+      <c r="V13">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AC13">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.19</v>
+      </c>
+      <c r="C14">
+        <v>0.11</v>
+      </c>
+      <c r="E14">
+        <v>0.25</v>
+      </c>
+      <c r="F14">
+        <v>0.13</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0.22119921692859512</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I14">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>-5.0216433645729475E-2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>6.0216433645729484E-2</v>
+      </c>
+      <c r="R14">
+        <v>0.25</v>
+      </c>
+      <c r="S14">
+        <v>0.6</v>
+      </c>
+      <c r="U14">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="V14">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AC14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.19</v>
+      </c>
+      <c r="C15">
+        <v>0.11</v>
+      </c>
+      <c r="E15">
+        <v>0.25</v>
+      </c>
+      <c r="F15">
+        <v>0.13</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0.22119921692859512</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>-4.0216433645729466E-2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>5.0216433645729475E-2</v>
+      </c>
+      <c r="R15">
+        <v>0.25</v>
+      </c>
+      <c r="S15">
+        <v>0.6</v>
+      </c>
+      <c r="U15">
+        <v>4.82</v>
+      </c>
+      <c r="V15">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AC15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0.25</v>
+      </c>
+      <c r="C16">
+        <v>0.13</v>
+      </c>
+      <c r="E16">
+        <v>0.26</v>
+      </c>
+      <c r="F16">
+        <v>0.15</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0.22894841419643375</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>6.7600000000000007E-2</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>-3.7021869229697635E-2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>4.7021869229697644E-2</v>
+      </c>
+      <c r="R16">
+        <v>0.26</v>
+      </c>
+      <c r="S16">
+        <v>0.6</v>
+      </c>
+      <c r="U16">
+        <v>5.36</v>
+      </c>
+      <c r="V16">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AC16">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.25</v>
+      </c>
+      <c r="C17">
+        <v>0.13</v>
+      </c>
+      <c r="E17">
+        <v>0.27</v>
+      </c>
+      <c r="F17">
+        <v>0.16</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0.23662050566314685</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="I17">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>-3.3770111811224357E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>4.3770111811224366E-2</v>
+      </c>
+      <c r="R17">
+        <v>0.27</v>
+      </c>
+      <c r="S17">
+        <v>0.6</v>
+      </c>
+      <c r="AC17">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0.26</v>
+      </c>
+      <c r="C18">
+        <v>0.15</v>
+      </c>
+      <c r="E18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F18">
+        <v>0.17</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.24421625854427453</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>7.8400000000000011E-2</v>
+      </c>
+      <c r="I18">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>-3.0461642041325732E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>4.0461642041325629E-2</v>
+      </c>
+      <c r="R18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S18">
+        <v>0.6</v>
+      </c>
+      <c r="AC18">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0.27</v>
+      </c>
+      <c r="C19">
+        <v>0.16</v>
+      </c>
+      <c r="E19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F19">
+        <v>0.18</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0.25173643242143473</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="I19">
+        <v>19</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>-2.7096936531618043E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>3.7096936531618052E-2</v>
+      </c>
+      <c r="R19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S19">
+        <v>0.6</v>
+      </c>
+      <c r="AC19">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C20">
+        <v>0.17</v>
+      </c>
+      <c r="E20">
+        <v>0.31</v>
+      </c>
+      <c r="F20">
+        <v>0.19</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0.26655304377571076</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>9.6100000000000005E-2</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>-3.0200704745640072E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>4.0200704745640081E-2</v>
+      </c>
+      <c r="R20">
+        <v>0.31</v>
+      </c>
+      <c r="S20">
+        <v>0.6</v>
+      </c>
+      <c r="AC20">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C21">
+        <v>0.18</v>
+      </c>
+      <c r="E21">
+        <v>0.32</v>
+      </c>
+      <c r="F21">
+        <v>0.2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0.27385096292630906</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>0.1024</v>
+      </c>
+      <c r="I21">
+        <v>21</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>-2.6670111799704355E-2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>3.6670111799704364E-2</v>
+      </c>
+      <c r="R21">
+        <v>0.32</v>
+      </c>
+      <c r="S21">
+        <v>0.6</v>
+      </c>
+      <c r="AC21">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.31</v>
+      </c>
+      <c r="C22">
+        <v>0.19</v>
+      </c>
+      <c r="E22">
+        <v>0.32</v>
+      </c>
+      <c r="F22">
+        <v>0.2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0.27385096292630906</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>0.1024</v>
+      </c>
+      <c r="I22">
+        <v>22</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>-1.6670111799704346E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>2.6670111799704355E-2</v>
+      </c>
+      <c r="R22">
+        <v>0.32</v>
+      </c>
+      <c r="S22">
+        <v>0.6</v>
+      </c>
+      <c r="AC22">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.32</v>
+      </c>
+      <c r="C23">
+        <v>0.2</v>
+      </c>
+      <c r="E23">
+        <v>0.32</v>
+      </c>
+      <c r="F23">
+        <v>0.2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0.27385096292630906</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>0.1024</v>
+      </c>
+      <c r="I23">
+        <v>23</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>-6.6701117997043369E-3</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>1.6670111799704346E-2</v>
+      </c>
+      <c r="R23">
+        <v>0.32</v>
+      </c>
+      <c r="S23">
+        <v>0.6</v>
+      </c>
+      <c r="AC23">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.32</v>
+      </c>
+      <c r="C24">
+        <v>0.2</v>
+      </c>
+      <c r="E24">
+        <v>0.33</v>
+      </c>
+      <c r="F24">
+        <v>0.23</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0.28107626656807383</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>0.10890000000000001</v>
+      </c>
+      <c r="I24">
+        <v>24</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>-3.0851498411061939E-3</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>1.3085149841106203E-2</v>
+      </c>
+      <c r="R24">
+        <v>0.33</v>
+      </c>
+      <c r="S24">
+        <v>0.6</v>
+      </c>
+      <c r="AC24">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0.32</v>
+      </c>
+      <c r="C25">
+        <v>0.2</v>
+      </c>
+      <c r="E25">
+        <v>0.36</v>
+      </c>
+      <c r="F25">
+        <v>0.24</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0.30232367392896897</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="I25">
+        <v>25</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>-1.2008599903421069E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>2.2008599903421078E-2</v>
+      </c>
+      <c r="R25">
+        <v>0.36</v>
+      </c>
+      <c r="S25">
+        <v>0.6</v>
+      </c>
+      <c r="AC25">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.33</v>
+      </c>
+      <c r="C26">
+        <v>0.23</v>
+      </c>
+      <c r="E26">
+        <v>0.38</v>
+      </c>
+      <c r="F26">
+        <v>0.25</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0.31613859078764417</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>0.1444</v>
+      </c>
+      <c r="I26">
+        <v>26</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>-1.4360663271222318E-2</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>2.4360663271222327E-2</v>
+      </c>
+      <c r="R26">
+        <v>0.38</v>
+      </c>
+      <c r="S26">
+        <v>0.6</v>
+      </c>
+      <c r="AC26">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.36</v>
+      </c>
+      <c r="C27">
+        <v>0.6</v>
+      </c>
+      <c r="E27">
+        <v>0.41</v>
+      </c>
+      <c r="F27">
+        <v>0.26</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0.3363497498636806</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>0.16809999999999997</v>
+      </c>
+      <c r="I27">
+        <v>27</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>-2.2502201581582781E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>3.250220158158279E-2</v>
+      </c>
+      <c r="R27">
+        <v>0.41</v>
+      </c>
+      <c r="S27">
+        <v>0.6</v>
+      </c>
+      <c r="AC27">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.38</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.41</v>
+      </c>
+      <c r="F28">
+        <v>0.26</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0.3363497498636806</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>0.16809999999999997</v>
+      </c>
+      <c r="I28">
+        <v>28</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>-1.2502201581582773E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>2.2502201581582781E-2</v>
+      </c>
+      <c r="R28">
+        <v>0.41</v>
+      </c>
+      <c r="S28">
+        <v>0.6</v>
+      </c>
+      <c r="AC28">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.41</v>
+      </c>
+      <c r="E29">
+        <v>0.46</v>
+      </c>
+      <c r="F29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0.36871635449307405</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="I29">
+        <v>29</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>-3.1735816025225572E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>4.1735816025225581E-2</v>
+      </c>
+      <c r="R29">
+        <v>0.46</v>
+      </c>
+      <c r="S29">
+        <v>0.6</v>
+      </c>
+      <c r="AC29">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0.41</v>
+      </c>
+      <c r="E30">
+        <v>0.46</v>
+      </c>
+      <c r="F30">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0.36871635449307405</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="I30">
+        <v>30</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>-2.1735816025225563E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>3.1735816025225572E-2</v>
+      </c>
+      <c r="R30">
+        <v>0.46</v>
+      </c>
+      <c r="S30">
+        <v>0.6</v>
+      </c>
+      <c r="AC30">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0.46</v>
+      </c>
+      <c r="E31">
+        <v>0.48</v>
+      </c>
+      <c r="F31">
+        <v>0.3</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0.38121660819385916</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>0.23039999999999999</v>
+      </c>
+      <c r="I31">
+        <v>31</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>-2.3088200591590446E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>3.3088200591590455E-2</v>
+      </c>
+      <c r="R31">
+        <v>0.48</v>
+      </c>
+      <c r="S31">
+        <v>0.6</v>
+      </c>
+      <c r="AC31">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.46</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>0.31</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>0.39346934028736658</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="I32">
+        <v>32</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>-2.4250575662558616E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>3.4250575662558624E-2</v>
+      </c>
+      <c r="R32">
+        <v>0.5</v>
+      </c>
+      <c r="S32">
+        <v>0.6</v>
+      </c>
+      <c r="AC32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0.48</v>
+      </c>
+      <c r="E33">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F33">
+        <v>0.32</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>0.43447456130046291</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>0.32489999999999997</v>
+      </c>
+      <c r="I33">
+        <v>33</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>-5.1868000828357852E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>6.1868000828357861E-2</v>
+      </c>
+      <c r="R33">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S33">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC33">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="E34">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F34">
+        <v>0.32</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0.43447456130046291</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>0.32489999999999997</v>
+      </c>
+      <c r="I34">
+        <v>34</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>-4.1868000828357843E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>5.1868000828357852E-2</v>
+      </c>
+      <c r="R34">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S34">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC34">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E35">
+        <v>0.6</v>
+      </c>
+      <c r="F35">
+        <v>0.34</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0.45118836390597361</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="3"/>
+        <v>0.36</v>
+      </c>
+      <c r="I35">
+        <v>35</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>-4.7321773489560126E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>5.7321773489560024E-2</v>
+      </c>
+      <c r="R35">
+        <v>0.6</v>
+      </c>
+      <c r="S35">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E36">
+        <v>0.62</v>
+      </c>
+      <c r="F36">
+        <v>0.35</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0.46205556240532553</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="3"/>
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="I36">
+        <v>36</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>-4.7409045025890717E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="2"/>
+        <v>5.7409045025890726E-2</v>
+      </c>
+      <c r="R36">
+        <v>0.62</v>
+      </c>
+      <c r="S36">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC36">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0.6</v>
+      </c>
+      <c r="E37">
+        <v>0.62</v>
+      </c>
+      <c r="F37">
+        <v>0.35</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>0.46205556240532553</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="3"/>
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="I37">
+        <v>37</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>-3.7409045025890708E-2</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>4.7409045025890717E-2</v>
+      </c>
+      <c r="R37">
+        <v>0.62</v>
+      </c>
+      <c r="S37">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC37">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0.62</v>
+      </c>
+      <c r="E38">
+        <v>0.64</v>
+      </c>
+      <c r="F38">
+        <v>0.37</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>0.47270757595695145</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="3"/>
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="I38">
+        <v>38</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>-3.7327481780124017E-2</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="2"/>
+        <v>4.7327481780124026E-2</v>
+      </c>
+      <c r="R38">
+        <v>0.64</v>
+      </c>
+      <c r="S38">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC38">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0.62</v>
+      </c>
+      <c r="E39">
+        <v>0.68</v>
+      </c>
+      <c r="F39">
+        <v>0.38</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>0.49338300763441045</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="3"/>
+        <v>0.46240000000000009</v>
+      </c>
+      <c r="I39">
+        <v>39</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>-4.6669107071498628E-2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="2"/>
+        <v>5.6669107071498637E-2</v>
+      </c>
+      <c r="R39">
+        <v>0.68</v>
+      </c>
+      <c r="S39">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC39">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0.64</v>
+      </c>
+      <c r="E40">
+        <v>0.7</v>
+      </c>
+      <c r="F40">
+        <v>0.39</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0.50341469620859047</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="3"/>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="I40">
+        <v>40</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>-4.609780622108528E-2</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="2"/>
+        <v>5.6097806221085289E-2</v>
+      </c>
+      <c r="R40">
+        <v>0.7</v>
+      </c>
+      <c r="S40">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC40">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.68</v>
+      </c>
+      <c r="E41">
+        <v>0.72</v>
+      </c>
+      <c r="F41">
+        <v>0.4</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0.51324774404002826</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="3"/>
+        <v>0.51839999999999997</v>
+      </c>
+      <c r="I41">
+        <v>41</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>-4.5368693383491254E-2</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="2"/>
+        <v>5.5368693383491152E-2</v>
+      </c>
+      <c r="R41">
+        <v>0.72</v>
+      </c>
+      <c r="S41">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC41">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.7</v>
+      </c>
+      <c r="E42">
+        <v>0.73</v>
+      </c>
+      <c r="F42">
+        <v>0.41</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>0.51809100990979751</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="3"/>
+        <v>0.53289999999999993</v>
+      </c>
+      <c r="I42">
+        <v>42</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>-3.9945784631314263E-2</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>4.9945784631314272E-2</v>
+      </c>
+      <c r="R42">
+        <v>0.73</v>
+      </c>
+      <c r="S42">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC42">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0.72</v>
+      </c>
+      <c r="E43">
+        <v>0.74</v>
+      </c>
+      <c r="F43">
+        <v>0.42</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>0.52288608447896556</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="I43">
+        <v>43</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>-3.4484409922376447E-2</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="2"/>
+        <v>4.4484409922376456E-2</v>
+      </c>
+      <c r="R43">
+        <v>0.74</v>
+      </c>
+      <c r="S43">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC43">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0.73</v>
+      </c>
+      <c r="E44">
+        <v>0.75</v>
+      </c>
+      <c r="F44">
+        <v>0.43</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>0.52763344725898531</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="3"/>
+        <v>0.5625</v>
+      </c>
+      <c r="I44">
+        <v>44</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>-2.8984892525266925E-2</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="2"/>
+        <v>3.8984892525266934E-2</v>
+      </c>
+      <c r="R44">
+        <v>0.75</v>
+      </c>
+      <c r="S44">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC44">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0.74</v>
+      </c>
+      <c r="E45">
+        <v>0.77</v>
+      </c>
+      <c r="F45">
+        <v>0.44</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>0.53698693168877187</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="3"/>
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="I45">
+        <v>45</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>-2.787270917994511E-2</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="2"/>
+        <v>3.7872709179945119E-2</v>
+      </c>
+      <c r="R45">
+        <v>0.77</v>
+      </c>
+      <c r="S45">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC45">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0.75</v>
+      </c>
+      <c r="E46">
+        <v>0.8</v>
+      </c>
+      <c r="F46">
+        <v>0.45</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>0.55067103588277844</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="3"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="I46">
+        <v>46</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>-3.0926290718120808E-2</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="2"/>
+        <v>4.0926290718120817E-2</v>
+      </c>
+      <c r="R46">
+        <v>0.8</v>
+      </c>
+      <c r="S46">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC46">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0.77</v>
+      </c>
+      <c r="E47">
+        <v>0.81</v>
+      </c>
+      <c r="F47">
+        <v>0.46</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>0.55514193377705889</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>0.65610000000000013</v>
+      </c>
+      <c r="I47">
+        <v>47</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>-2.5204555281585495E-2</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="2"/>
+        <v>3.5204555281585503E-2</v>
+      </c>
+      <c r="R47">
+        <v>0.81</v>
+      </c>
+      <c r="S47">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC47">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0.8</v>
+      </c>
+      <c r="E48">
+        <v>0.82</v>
+      </c>
+      <c r="F48">
+        <v>0.47</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>0.5595683454940007</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>0.67239999999999989</v>
+      </c>
+      <c r="I48">
+        <v>48</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>-1.9446865233092692E-2</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="2"/>
+        <v>2.9446865233092701E-2</v>
+      </c>
+      <c r="R48">
+        <v>0.82</v>
+      </c>
+      <c r="S48">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC48">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0.81</v>
+      </c>
+      <c r="E49">
+        <v>0.85</v>
+      </c>
+      <c r="F49">
+        <v>0.48</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>0.57258506805127329</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>0.72249999999999992</v>
+      </c>
+      <c r="I49">
+        <v>49</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>-2.1961076372309096E-2</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="2"/>
+        <v>3.1961076372309105E-2</v>
+      </c>
+      <c r="R49">
+        <v>0.85</v>
+      </c>
+      <c r="S49">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC49">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0.82</v>
+      </c>
+      <c r="E50">
+        <v>0.87</v>
+      </c>
+      <c r="F50">
+        <v>0.49</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>0.581048450752361</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>0.75690000000000002</v>
+      </c>
+      <c r="I50">
+        <v>50</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>-2.012958309178281E-2</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="2"/>
+        <v>3.0129583091782819E-2</v>
+      </c>
+      <c r="R50">
+        <v>0.87</v>
+      </c>
+      <c r="S50">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC50">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0.85</v>
+      </c>
+      <c r="E51">
+        <v>0.89</v>
+      </c>
+      <c r="F51">
+        <v>0.5</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>0.58934424724765444</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="I51">
+        <v>51</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>-1.8161370179285152E-2</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="2"/>
+        <v>2.8161370179285161E-2</v>
+      </c>
+      <c r="R51">
+        <v>0.89</v>
+      </c>
+      <c r="S51">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC51">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0.87</v>
+      </c>
+      <c r="E52">
+        <v>0.9</v>
+      </c>
+      <c r="F52">
+        <v>0.51</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>0.59343034025940089</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>0.81</v>
+      </c>
+      <c r="I52">
+        <v>52</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>-1.2126710468579049E-2</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="2"/>
+        <v>2.2126710468579058E-2</v>
+      </c>
+      <c r="R52">
+        <v>0.9</v>
+      </c>
+      <c r="S52">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC52">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0.89</v>
+      </c>
+      <c r="E53">
+        <v>0.91</v>
+      </c>
+      <c r="F53">
+        <v>0.52</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>0.59747577596636403</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>0.82810000000000006</v>
+      </c>
+      <c r="I53">
+        <v>53</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>-6.0587259671157634E-3</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="2"/>
+        <v>1.6058725967115772E-2</v>
+      </c>
+      <c r="R53">
+        <v>0.91</v>
+      </c>
+      <c r="S53">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC53">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0.9</v>
+      </c>
+      <c r="E54">
+        <v>0.91</v>
+      </c>
+      <c r="F54">
+        <v>0.52</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>0.59747577596636403</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>0.82810000000000006</v>
+      </c>
+      <c r="I54">
+        <v>54</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>3.9412740328842455E-3</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="2"/>
+        <v>6.0587259671157634E-3</v>
+      </c>
+      <c r="R54">
+        <v>0.91</v>
+      </c>
+      <c r="S54">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC54">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0.91</v>
+      </c>
+      <c r="E55">
+        <v>0.95</v>
+      </c>
+      <c r="F55">
+        <v>0.54</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>0.61325897654549877</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="I55">
+        <v>55</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>-1.4591061102561809E-3</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="2"/>
+        <v>1.145910611025619E-2</v>
+      </c>
+      <c r="R55">
+        <v>0.95</v>
+      </c>
+      <c r="S55">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC55">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0.91</v>
+      </c>
+      <c r="E56">
+        <v>0.95</v>
+      </c>
+      <c r="F56">
+        <v>0.54</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>0.61325897654549877</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="I56">
+        <v>56</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>8.540893889743828E-3</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="2"/>
+        <v>1.4591061102561809E-3</v>
+      </c>
+      <c r="R56">
+        <v>0.95</v>
+      </c>
+      <c r="S56">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC56">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0.95</v>
+      </c>
+      <c r="E57">
+        <v>1.02</v>
+      </c>
+      <c r="F57">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>0.63940505982692164</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>1.0404</v>
+      </c>
+      <c r="I57">
+        <v>57</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>-7.1899003488425928E-3</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
+        <v>1.7189900348842491E-2</v>
+      </c>
+      <c r="R57">
+        <v>1.02</v>
+      </c>
+      <c r="S57">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC57">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0.95</v>
+      </c>
+      <c r="E58">
+        <v>1.03</v>
+      </c>
+      <c r="F58">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>0.64299303943085262</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>1.0609</v>
+      </c>
+      <c r="I58">
+        <v>58</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>-7.4320399315030983E-4</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="2"/>
+        <v>1.0743203993150319E-2</v>
+      </c>
+      <c r="R58">
+        <v>1.03</v>
+      </c>
+      <c r="S58">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC58">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>1.02</v>
+      </c>
+      <c r="E59">
+        <v>1.05</v>
+      </c>
+      <c r="F59">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>0.65006225088884473</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>1.1025</v>
+      </c>
+      <c r="I59">
+        <v>59</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>2.239523839477342E-3</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="2"/>
+        <v>7.7604761605226669E-3</v>
+      </c>
+      <c r="R59">
+        <v>1.05</v>
+      </c>
+      <c r="S59">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC59">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>1.03</v>
+      </c>
+      <c r="E60">
+        <v>1.07</v>
+      </c>
+      <c r="F60">
+        <v>0.59</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>0.65699148258129336</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>1.1449</v>
+      </c>
+      <c r="I60">
+        <v>60</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>5.3397026213560239E-3</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="2"/>
+        <v>4.660297378643985E-3</v>
+      </c>
+      <c r="R60">
+        <v>1.07</v>
+      </c>
+      <c r="S60">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC60">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.07</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>1.05</v>
+      </c>
+      <c r="E61">
+        <v>1.07</v>
+      </c>
+      <c r="F61">
+        <v>0.59</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>0.65699148258129336</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="3"/>
+        <v>1.1449</v>
+      </c>
+      <c r="I61">
+        <v>61</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>1.5339702621356033E-2</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="2"/>
+        <v>-5.3397026213560239E-3</v>
+      </c>
+      <c r="R61">
+        <v>1.07</v>
+      </c>
+      <c r="S61">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC61">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>1.07</v>
+      </c>
+      <c r="E62">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F62">
+        <v>0.61</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>0.66378350629326666</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="3"/>
+        <v>1.1881000000000002</v>
+      </c>
+      <c r="I62">
+        <v>62</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>1.8555366527995776E-2</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="2"/>
+        <v>-8.5553665279957669E-3</v>
+      </c>
+      <c r="R62">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="S62">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC62">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>1.07</v>
+      </c>
+      <c r="E63">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F63">
+        <v>0.61</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>0.66378350629326666</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="3"/>
+        <v>1.1881000000000002</v>
+      </c>
+      <c r="I63">
+        <v>63</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>2.8555366527995785E-2</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="2"/>
+        <v>-1.8555366527995776E-2</v>
+      </c>
+      <c r="R63">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="S63">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="AC63">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E64">
+        <v>1.2</v>
+      </c>
+      <c r="F64">
+        <v>0.63</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>0.69880578808779781</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="3"/>
+        <v>1.44</v>
+      </c>
+      <c r="I64">
+        <v>64</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>3.2210447097691941E-3</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="2"/>
+        <v>6.7789552902308148E-3</v>
+      </c>
+      <c r="R64">
+        <v>1.2</v>
+      </c>
+      <c r="S64">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AC64">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E65">
+        <v>1.21</v>
+      </c>
+      <c r="F65">
+        <v>0.64</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>0.70180272057011261</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="3"/>
+        <v>1.4641</v>
+      </c>
+      <c r="I65">
+        <v>65</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>1.0168528549627021E-2</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="2"/>
+        <v>-1.6852854962701169E-4</v>
+      </c>
+      <c r="R65">
+        <v>1.21</v>
+      </c>
+      <c r="S65">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AC65">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>1.2</v>
+      </c>
+      <c r="E66">
+        <v>1.23</v>
+      </c>
+      <c r="F66">
+        <v>0.65</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ref="G66:G100" si="4">1-EXP(-E66)</f>
+        <v>0.70770742231914063</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="3"/>
+        <v>1.5128999999999999</v>
+      </c>
+      <c r="I66">
+        <v>66</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ref="J66:J100" si="5">I66/100-1+EXP(-A66/$A$104)</f>
+        <v>1.4140240839024321E-2</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ref="L66:L100" si="6">1-((I66-1)/100)-EXP(-A66/$A$104)</f>
+        <v>-4.1402408390243117E-3</v>
+      </c>
+      <c r="R66">
+        <v>1.23</v>
+      </c>
+      <c r="S66">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AC66">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>1.21</v>
+      </c>
+      <c r="E67">
+        <v>1.35</v>
+      </c>
+      <c r="F67">
+        <v>0.66</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="4"/>
+        <v>0.74075973935410855</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H100" si="7">A67^2</f>
+        <v>1.8225000000000002</v>
+      </c>
+      <c r="I67">
+        <v>67</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="5"/>
+        <v>-9.9687567768771967E-3</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="6"/>
+        <v>1.9968756776877206E-2</v>
+      </c>
+      <c r="R67">
+        <v>1.35</v>
+      </c>
+      <c r="S67">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AC67">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>1.23</v>
+      </c>
+      <c r="E68">
+        <v>1.36</v>
+      </c>
+      <c r="F68">
+        <v>0.67</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="4"/>
+        <v>0.74333922304644418</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="7"/>
+        <v>1.8496000000000004</v>
+      </c>
+      <c r="I68">
+        <v>68</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="5"/>
+        <v>-2.6583050723773538E-3</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="6"/>
+        <v>1.2658305072377363E-2</v>
+      </c>
+      <c r="R68">
+        <v>1.36</v>
+      </c>
+      <c r="S68">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AC68">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>1.35</v>
+      </c>
+      <c r="E69">
+        <v>1.38</v>
+      </c>
+      <c r="F69">
+        <v>0.68</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="4"/>
+        <v>0.74842144694024348</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="7"/>
+        <v>1.9043999999999996</v>
+      </c>
+      <c r="I69">
+        <v>69</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="5"/>
+        <v>2.0302174165316988E-3</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="6"/>
+        <v>7.969782583468199E-3</v>
+      </c>
+      <c r="R69">
+        <v>1.38</v>
+      </c>
+      <c r="S69">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AC69">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1.42</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>1.36</v>
+      </c>
+      <c r="E70">
+        <v>1.42</v>
+      </c>
+      <c r="F70">
+        <v>0.69</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="4"/>
+        <v>0.75828598310296358</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="7"/>
+        <v>2.0164</v>
+      </c>
+      <c r="I70">
+        <v>70</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="5"/>
+        <v>1.6724755355609355E-3</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="6"/>
+        <v>8.3275244644390733E-3</v>
+      </c>
+      <c r="R70">
+        <v>1.42</v>
+      </c>
+      <c r="S70">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AC70">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1.42</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>1.38</v>
+      </c>
+      <c r="E71">
+        <v>1.42</v>
+      </c>
+      <c r="F71">
+        <v>0.69</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="4"/>
+        <v>0.75828598310296358</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="7"/>
+        <v>2.0164</v>
+      </c>
+      <c r="I71">
+        <v>71</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="5"/>
+        <v>1.1672475535560944E-2</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="6"/>
+        <v>-1.6724755355609355E-3</v>
+      </c>
+      <c r="R71">
+        <v>1.42</v>
+      </c>
+      <c r="S71">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AC71">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.49</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>1.42</v>
+      </c>
+      <c r="E72">
+        <v>1.49</v>
+      </c>
+      <c r="F72">
+        <v>0.71</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="4"/>
+        <v>0.77462734446056125</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="7"/>
+        <v>2.2201</v>
+      </c>
+      <c r="I72">
+        <v>72</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="5"/>
+        <v>4.3668686194643924E-3</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="6"/>
+        <v>5.6331313805356165E-3</v>
+      </c>
+      <c r="R72">
+        <v>1.49</v>
+      </c>
+      <c r="S72">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AC72">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.56</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>1.42</v>
+      </c>
+      <c r="E73">
+        <v>1.56</v>
+      </c>
+      <c r="F73">
+        <v>0.72</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="4"/>
+        <v>0.78986392879923528</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="7"/>
+        <v>2.4336000000000002</v>
+      </c>
+      <c r="I73">
+        <v>73</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="5"/>
+        <v>-1.9459926700954311E-3</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="6"/>
+        <v>1.194599267009544E-2</v>
+      </c>
+      <c r="R73">
+        <v>1.56</v>
+      </c>
+      <c r="S73">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AC73">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>1.49</v>
+      </c>
+      <c r="E74">
+        <v>1.59</v>
+      </c>
+      <c r="F74">
+        <v>0.73</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="4"/>
+        <v>0.79607438826578658</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="7"/>
+        <v>2.5281000000000002</v>
+      </c>
+      <c r="I74">
+        <v>74</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="5"/>
+        <v>1.3524521673311529E-3</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="6"/>
+        <v>8.647547832668856E-3</v>
+      </c>
+      <c r="R74">
+        <v>1.59</v>
+      </c>
+      <c r="S74">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AC74">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>1.56</v>
+      </c>
+      <c r="E75">
+        <v>1.63</v>
+      </c>
+      <c r="F75">
+        <v>0.74</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="4"/>
+        <v>0.80407042587309063</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="7"/>
+        <v>2.6568999999999998</v>
+      </c>
+      <c r="I75">
+        <v>75</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="5"/>
+        <v>2.6769422698575407E-3</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="6"/>
+        <v>7.3230577301424682E-3</v>
+      </c>
+      <c r="R75">
+        <v>1.63</v>
+      </c>
+      <c r="S75">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AC75">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1.66</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>1.59</v>
+      </c>
+      <c r="E76">
+        <v>1.66</v>
+      </c>
+      <c r="F76">
+        <v>0.75</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="4"/>
+        <v>0.80986101989847947</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="7"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="I76">
+        <v>76</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="5"/>
+        <v>6.359825492536636E-3</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="6"/>
+        <v>3.6401745074633729E-3</v>
+      </c>
+      <c r="R76">
+        <v>1.66</v>
+      </c>
+      <c r="S76">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AC76">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1.66</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>1.63</v>
+      </c>
+      <c r="E77">
+        <v>1.66</v>
+      </c>
+      <c r="F77">
+        <v>0.75</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="4"/>
+        <v>0.80986101989847947</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="7"/>
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="I77">
+        <v>77</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="5"/>
+        <v>1.6359825492536645E-2</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="6"/>
+        <v>-6.359825492536636E-3</v>
+      </c>
+      <c r="R77">
+        <v>1.66</v>
+      </c>
+      <c r="S77">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AC77">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>1.66</v>
+      </c>
+      <c r="E78">
+        <v>1.73</v>
+      </c>
+      <c r="F78">
+        <v>0.77</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="4"/>
+        <v>0.82271559003012218</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="7"/>
+        <v>2.9929000000000001</v>
+      </c>
+      <c r="I78">
+        <v>78</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="5"/>
+        <v>1.222725906491301E-2</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="6"/>
+        <v>-2.2272590649130009E-3</v>
+      </c>
+      <c r="R78">
+        <v>1.73</v>
+      </c>
+      <c r="S78">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AC78">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>1.66</v>
+      </c>
+      <c r="E79">
+        <v>1.78</v>
+      </c>
+      <c r="F79">
+        <v>0.78</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="4"/>
+        <v>0.8313618527314045</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="7"/>
+        <v>3.1684000000000001</v>
+      </c>
+      <c r="I79">
+        <v>79</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="5"/>
+        <v>1.2631692591089594E-2</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="6"/>
+        <v>-2.631692591089585E-3</v>
+      </c>
+      <c r="R79">
+        <v>1.78</v>
+      </c>
+      <c r="S79">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AC79">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>1.73</v>
+      </c>
+      <c r="E80">
+        <v>1.86</v>
+      </c>
+      <c r="F80">
+        <v>0.79</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="4"/>
+        <v>0.84432736963200272</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="7"/>
+        <v>3.4596000000000005</v>
+      </c>
+      <c r="I80">
+        <v>80</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="5"/>
+        <v>8.0966337670564659E-3</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="6"/>
+        <v>1.903366232943543E-3</v>
+      </c>
+      <c r="R80">
+        <v>1.86</v>
+      </c>
+      <c r="S80">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AC80">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>1.78</v>
+      </c>
+      <c r="E81">
+        <v>1.9</v>
+      </c>
+      <c r="F81">
+        <v>0.8</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="4"/>
+        <v>0.85043138077736491</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="7"/>
+        <v>3.61</v>
+      </c>
+      <c r="I81">
+        <v>81</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="5"/>
+        <v>1.1188933491410452E-2</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="6"/>
+        <v>-1.1889334914104432E-3</v>
+      </c>
+      <c r="R81">
+        <v>1.9</v>
+      </c>
+      <c r="S81">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AC81">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>1.86</v>
+      </c>
+      <c r="E82">
+        <v>1.98</v>
+      </c>
+      <c r="F82">
+        <v>0.81</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="4"/>
+        <v>0.86193076268910718</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="7"/>
+        <v>3.9203999999999999</v>
+      </c>
+      <c r="I82">
+        <v>82</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="5"/>
+        <v>8.0538180502622847E-3</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="6"/>
+        <v>1.9461819497376132E-3</v>
+      </c>
+      <c r="R82">
+        <v>1.98</v>
+      </c>
+      <c r="S82">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AC82">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>1.9</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>0.82</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="4"/>
+        <v>0.8646647167633873</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="I83">
+        <v>83</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="5"/>
+        <v>1.4906284519641488E-2</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="6"/>
+        <v>-4.9062845196414795E-3</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AC83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>1.98</v>
+      </c>
+      <c r="E84">
+        <v>2.08</v>
+      </c>
+      <c r="F84">
+        <v>0.83</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="4"/>
+        <v>0.87506978780141753</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="7"/>
+        <v>4.3264000000000005</v>
+      </c>
+      <c r="I84">
+        <v>84</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="5"/>
+        <v>1.2834221952328584E-2</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="6"/>
+        <v>-2.834221952328575E-3</v>
+      </c>
+      <c r="R84">
+        <v>2.08</v>
+      </c>
+      <c r="S84">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AC84">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2.12</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>2.12</v>
+      </c>
+      <c r="F85">
+        <v>0.84</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="4"/>
+        <v>0.87996837148854323</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="7"/>
+        <v>4.4944000000000006</v>
+      </c>
+      <c r="I85">
+        <v>85</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="5"/>
+        <v>1.7097046001863125E-2</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="6"/>
+        <v>-7.0970460018631165E-3</v>
+      </c>
+      <c r="R85">
+        <v>2.12</v>
+      </c>
+      <c r="S85">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AC85">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2.16</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>2.08</v>
+      </c>
+      <c r="E86">
+        <v>2.16</v>
+      </c>
+      <c r="F86">
+        <v>0.85</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="4"/>
+        <v>0.88467487896193753</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="7"/>
+        <v>4.6656000000000004</v>
+      </c>
+      <c r="I86">
+        <v>86</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="5"/>
+        <v>2.155031374660335E-2</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="6"/>
+        <v>-1.1550313746603341E-2</v>
+      </c>
+      <c r="R86">
+        <v>2.16</v>
+      </c>
+      <c r="S86">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AC86">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2.17</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>2.12</v>
+      </c>
+      <c r="E87">
+        <v>2.17</v>
+      </c>
+      <c r="F87">
+        <v>0.86</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="4"/>
+        <v>0.8858223830891635</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="7"/>
+        <v>4.7088999999999999</v>
+      </c>
+      <c r="I87">
+        <v>87</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="5"/>
+        <v>3.0192642018684684E-2</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="6"/>
+        <v>-2.0192642018684676E-2</v>
+      </c>
+      <c r="R87">
+        <v>2.17</v>
+      </c>
+      <c r="S87">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC87">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>2.16</v>
+      </c>
+      <c r="E88">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F88">
+        <v>0.87</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="4"/>
+        <v>0.91709003342482731</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="7"/>
+        <v>6.2001000000000008</v>
+      </c>
+      <c r="I88">
+        <v>88</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="5"/>
+        <v>2.2798315226325444E-3</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="6"/>
+        <v>7.7201684773674645E-3</v>
+      </c>
+      <c r="R88">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="S88">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC88">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2.67</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>2.17</v>
+      </c>
+      <c r="E89">
+        <v>2.67</v>
+      </c>
+      <c r="F89">
+        <v>0.88</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="4"/>
+        <v>0.93074777469065406</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="7"/>
+        <v>7.1288999999999998</v>
+      </c>
+      <c r="I89">
+        <v>89</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="5"/>
+        <v>-4.9537672131536731E-3</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="6"/>
+        <v>1.4953767213153682E-2</v>
+      </c>
+      <c r="R89">
+        <v>2.67</v>
+      </c>
+      <c r="S89">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC89">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2.69</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E90">
+        <v>2.69</v>
+      </c>
+      <c r="F90">
+        <v>0.89</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="4"/>
+        <v>0.93211906062823857</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="7"/>
+        <v>7.2360999999999995</v>
+      </c>
+      <c r="I90">
+        <v>90</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="5"/>
+        <v>3.2880311008075536E-3</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="6"/>
+        <v>6.7119688991924553E-3</v>
+      </c>
+      <c r="R90">
+        <v>2.69</v>
+      </c>
+      <c r="S90">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC90">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>2.67</v>
+      </c>
+      <c r="E91">
+        <v>2.77</v>
+      </c>
+      <c r="F91">
+        <v>0.9</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="4"/>
+        <v>0.93733799525784689</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="7"/>
+        <v>7.6729000000000003</v>
+      </c>
+      <c r="I91">
+        <v>91</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="5"/>
+        <v>6.5446173918426997E-3</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="6"/>
+        <v>3.4553826081573091E-3</v>
+      </c>
+      <c r="R91">
+        <v>2.77</v>
+      </c>
+      <c r="S91">
+        <v>0.113</v>
+      </c>
+      <c r="AC91">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2.95</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>2.69</v>
+      </c>
+      <c r="E92">
+        <v>2.95</v>
+      </c>
+      <c r="F92">
+        <v>0.91</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="4"/>
+        <v>0.9476602940515676</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="7"/>
+        <v>8.7025000000000006</v>
+      </c>
+      <c r="I92">
+        <v>92</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="5"/>
+        <v>2.9380301442713253E-3</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="6"/>
+        <v>7.0619698557286836E-3</v>
+      </c>
+      <c r="R92">
+        <v>2.95</v>
+      </c>
+      <c r="S92">
+        <v>0.113</v>
+      </c>
+      <c r="AC92">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2.98</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>2.77</v>
+      </c>
+      <c r="E93">
+        <v>2.98</v>
+      </c>
+      <c r="F93">
+        <v>0.92</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="4"/>
+        <v>0.94920716613510148</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="7"/>
+        <v>8.8803999999999998</v>
+      </c>
+      <c r="I93">
+        <v>93</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="5"/>
+        <v>1.0864515968439778E-2</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="6"/>
+        <v>-8.6451596843976908E-4</v>
+      </c>
+      <c r="R93">
+        <v>2.98</v>
+      </c>
+      <c r="S93">
+        <v>0.113</v>
+      </c>
+      <c r="AC93">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3.12</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>2.95</v>
+      </c>
+      <c r="E94">
+        <v>3.12</v>
+      </c>
+      <c r="F94">
+        <v>0.93</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="4"/>
+        <v>0.95584283158030714</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="7"/>
+        <v>9.7344000000000008</v>
+      </c>
+      <c r="I94">
+        <v>94</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="5"/>
+        <v>1.1852950845620491E-2</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="6"/>
+        <v>-1.8529508456205934E-3</v>
+      </c>
+      <c r="R94">
+        <v>3.12</v>
+      </c>
+      <c r="S94">
+        <v>0.113</v>
+      </c>
+      <c r="AC94">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>2.98</v>
+      </c>
+      <c r="E95">
+        <v>3.15</v>
+      </c>
+      <c r="F95">
+        <v>0.94</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="4"/>
+        <v>0.95714787313295979</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="7"/>
+        <v>9.9224999999999994</v>
+      </c>
+      <c r="I95">
+        <v>95</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="5"/>
+        <v>2.0056572128950317E-2</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="6"/>
+        <v>-1.0056572128950308E-2</v>
+      </c>
+      <c r="R95">
+        <v>3.15</v>
+      </c>
+      <c r="S95">
+        <v>0.113</v>
+      </c>
+      <c r="AC95">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>3.12</v>
+      </c>
+      <c r="E96">
+        <v>3.19</v>
+      </c>
+      <c r="F96">
+        <v>0.95</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="4"/>
+        <v>0.95882812906093229</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="7"/>
+        <v>10.1761</v>
+      </c>
+      <c r="I96">
+        <v>96</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="5"/>
+        <v>2.7731066935302237E-2</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="6"/>
+        <v>-1.7731066935302228E-2</v>
+      </c>
+      <c r="R96">
+        <v>3.19</v>
+      </c>
+      <c r="S96">
+        <v>0.113</v>
+      </c>
+      <c r="AC96">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4.18</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>3.15</v>
+      </c>
+      <c r="E97">
+        <v>4.18</v>
+      </c>
+      <c r="F97">
+        <v>0.96</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="4"/>
+        <v>0.98470149243327443</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="7"/>
+        <v>17.472399999999997</v>
+      </c>
+      <c r="I97">
+        <v>97</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="5"/>
+        <v>-6.2830602999353405E-4</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="6"/>
+        <v>1.0628306029993543E-2</v>
+      </c>
+      <c r="R97">
+        <v>4.18</v>
+      </c>
+      <c r="S97">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AC97">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4.4800000000000004</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>3.19</v>
+      </c>
+      <c r="E98">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="F98">
+        <v>0.97</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="4"/>
+        <v>0.9886665868453326</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="7"/>
+        <v>20.070400000000003</v>
+      </c>
+      <c r="I98">
+        <v>98</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="5"/>
+        <v>2.8019372069003588E-3</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="6"/>
+        <v>7.1980627930996501E-3</v>
+      </c>
+      <c r="R98">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="S98">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AC98">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4.82</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>4.18</v>
+      </c>
+      <c r="E99">
+        <v>4.82</v>
+      </c>
+      <c r="F99">
+        <v>0.98</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="4"/>
+        <v>0.99193321286090042</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="7"/>
+        <v>23.232400000000002</v>
+      </c>
+      <c r="I99">
+        <v>99</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="5"/>
+        <v>7.1140788898872119E-3</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="6"/>
+        <v>2.885921110112797E-3</v>
+      </c>
+      <c r="R99">
+        <v>4.82</v>
+      </c>
+      <c r="S99">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="AC99">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5.36</v>
+      </c>
+      <c r="B100">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E100">
+        <v>5.36</v>
+      </c>
+      <c r="F100">
+        <v>0.99</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="4"/>
+        <v>0.99529909389241678</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="7"/>
+        <v>28.729600000000005</v>
+      </c>
+      <c r="I100">
+        <v>100</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="5"/>
+        <v>1.0850018559110445E-2</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="6"/>
+        <v>-8.5001855911043603E-4</v>
+      </c>
+      <c r="R100">
+        <v>5.36</v>
+      </c>
+      <c r="S100">
+        <v>1.9E-2</v>
+      </c>
+      <c r="AC100">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f>SUM(A1:A100)</f>
+        <v>118.49000000000002</v>
+      </c>
+      <c r="B102">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <f>SUM(H1:H100)</f>
+        <v>258.77590000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f>AVERAGE(A1:A100)</f>
+        <v>1.1849000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -891,6 +9065,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/твимс/9задача.xlsx
+++ b/твимс/9задача.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Git Vuzik\твимс\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEFB251-54FD-407C-A2EC-C2DE6B8C4787}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A161250-CC3A-4776-ABB0-9E7B11FC9458}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{8A0EDB1E-8BB4-4B63-B717-0B7E3F77CF2E}"/>
   </bookViews>
@@ -2058,16 +2058,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="50" normalizeH="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ru-RU"/>
@@ -4141,16 +4138,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>291703</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>140494</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1811</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>5953</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>26194</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>326903</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>129727</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4477,8 +4474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C6422B-CD7E-4165-89EF-C6E3FFB642F0}">
   <dimension ref="A1:AF104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="92" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U131" sqref="U131"/>
+    <sheetView tabSelected="1" topLeftCell="O9" zoomScale="92" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
